--- a/Contribution.xlsx
+++ b/Contribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_0E8A961A6A2B4641A5E47AE42C71B18FEE629BBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C3CB8DA-1ECA-4352-A522-5D86B8977F61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E78EB922-D658-4752-B819-C1381A7FA057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1153,26 +1153,16 @@
         <v>44956</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="J2" s="2">
         <f>SUM(C2:H2)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
@@ -1183,26 +1173,18 @@
         <v>44963</v>
       </c>
       <c r="C3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.1</v>
-      </c>
+        <v>0.52</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.1</v>
-      </c>
+        <v>0.48</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J16" si="0">SUM(C3:H3)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
@@ -1212,15 +1194,21 @@
       <c r="B4" s="6">
         <v>44970</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.41</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
@@ -1230,15 +1218,21 @@
       <c r="B5" s="6">
         <v>44977</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>0.51</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.27</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
@@ -1442,31 +1436,31 @@
       </c>
       <c r="C18" s="2">
         <f>SUM(C2:C13)/COUNT(C2:C13)</f>
-        <v>0.4</v>
-      </c>
-      <c r="D18" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D18" s="2" t="e">
         <f t="shared" ref="D18:J18" si="1">SUM(D2:D13)/COUNT(D2:D13)</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.33666666666666667</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G18" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H18" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
